--- a/output_data/charts/0500000US39049.xlsx
+++ b/output_data/charts/0500000US39049.xlsx
@@ -141,11 +141,23 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="38100"/>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -202,37 +214,37 @@
                   <c:v>2.419039460697592</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4963479354278</c:v>
+                  <c:v>2.494498788808965</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.572244593851448</c:v>
+                  <c:v>2.572244593851449</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.612042892493814</c:v>
+                  <c:v>2.594858399780038</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.703419909112017</c:v>
+                  <c:v>2.686834510896607</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.728812496079293</c:v>
+                  <c:v>2.742927043472806</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.935115218884656</c:v>
+                  <c:v>2.927309061387623</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.989271950838454</c:v>
+                  <c:v>2.975880488639576</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.221955324137336</c:v>
+                  <c:v>3.221236137681055</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.549603975556452</c:v>
+                  <c:v>3.535683959966035</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.7280441294852</c:v>
+                  <c:v>3.708249204903862</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.87646982814317</c:v>
+                  <c:v>3.876469828143171</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -255,7 +267,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" baseline="0"/>
+              <a:defRPr sz="1600" baseline="0">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -270,7 +284,7 @@
         <c:axId val="50010002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="4.264116810957487"/>
+          <c:max val="5"/>
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
@@ -282,7 +296,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" baseline="0"/>
+              <a:defRPr sz="1600" baseline="0">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -292,6 +308,31 @@
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="80C080"/>
+            </a:gs>
+            <a:gs pos="60000">
+              <a:srgbClr val="80C080"/>
+            </a:gs>
+            <a:gs pos="60000">
+              <a:srgbClr val="FFFF80"/>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:srgbClr val="FFFF80"/>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:srgbClr val="FFD280"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFD280"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -313,10 +354,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -653,7 +694,7 @@
         <v>2013</v>
       </c>
       <c r="B3" s="1">
-        <v>2.4963479354278</v>
+        <v>2.494498788808965</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -661,7 +702,7 @@
         <v>2014</v>
       </c>
       <c r="B4" s="1">
-        <v>2.572244593851448</v>
+        <v>2.572244593851449</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -669,7 +710,7 @@
         <v>2015</v>
       </c>
       <c r="B5" s="1">
-        <v>2.612042892493814</v>
+        <v>2.594858399780038</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -677,7 +718,7 @@
         <v>2016</v>
       </c>
       <c r="B6" s="1">
-        <v>2.703419909112017</v>
+        <v>2.686834510896607</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -685,7 +726,7 @@
         <v>2017</v>
       </c>
       <c r="B7" s="1">
-        <v>2.728812496079293</v>
+        <v>2.742927043472806</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -693,7 +734,7 @@
         <v>2018</v>
       </c>
       <c r="B8" s="1">
-        <v>2.935115218884656</v>
+        <v>2.927309061387623</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -701,7 +742,7 @@
         <v>2019</v>
       </c>
       <c r="B9" s="1">
-        <v>2.989271950838454</v>
+        <v>2.975880488639576</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -709,7 +750,7 @@
         <v>2020</v>
       </c>
       <c r="B10" s="1">
-        <v>3.221955324137336</v>
+        <v>3.221236137681055</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -717,7 +758,7 @@
         <v>2021</v>
       </c>
       <c r="B11" s="1">
-        <v>3.549603975556452</v>
+        <v>3.535683959966035</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -725,7 +766,7 @@
         <v>2022</v>
       </c>
       <c r="B12" s="1">
-        <v>3.7280441294852</v>
+        <v>3.708249204903862</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -733,7 +774,7 @@
         <v>2023</v>
       </c>
       <c r="B13" s="1">
-        <v>3.87646982814317</v>
+        <v>3.876469828143171</v>
       </c>
     </row>
   </sheetData>
